--- a/data/case1/2/V2_13.xlsx
+++ b/data/case1/2/V2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999012670571</v>
+        <v>0.9999999957107899</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99872043322329906</v>
+        <v>0.99824863123661856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99541454477561297</v>
+        <v>0.99243400044790953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99965317318869173</v>
+        <v>0.99489028011542624</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99078943138622921</v>
+        <v>0.98417524324512362</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97057744385319111</v>
+        <v>0.95985470066373568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96398252004049545</v>
+        <v>0.95450763659462134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95485408144027883</v>
+        <v>0.94716225630673567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94311085903321135</v>
+        <v>0.93852241359592192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93228432768627656</v>
+        <v>0.93079562193781129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93068839167873663</v>
+        <v>0.92968017570723616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92790877655736259</v>
+        <v>0.92781399039010393</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.91662239757697295</v>
+        <v>0.92098197335054444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91245528131562215</v>
+        <v>0.91882682565080276</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.90986393736230209</v>
+        <v>0.91623536709455289</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9073575358043009</v>
+        <v>0.91372889674270907</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90364973652738567</v>
+        <v>0.91002097444916008</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90254085095331915</v>
+        <v>0.90891205147383358</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99766730410265758</v>
+        <v>0.99719539540526381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99055055818591797</v>
+        <v>0.99007830706453781</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98915211564812944</v>
+        <v>0.98867980472420691</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98788762327910618</v>
+        <v>0.98741529712073262</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98880195004815274</v>
+        <v>0.98539971215768385</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97731131894506706</v>
+        <v>0.9723793597748821</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.97085449900111898</v>
+        <v>0.96592244504731883</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9697324848463359</v>
+        <v>0.95748976550954656</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96880781486302758</v>
+        <v>0.95444159799517214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9664716884514134</v>
+        <v>0.94343533457226703</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.96547501448539907</v>
+        <v>0.93592154613602396</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.96571872083237909</v>
+        <v>0.9293523813402107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.97656723064027617</v>
+        <v>0.92169942893772239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.98143790748091797</v>
+        <v>0.92002011450889754</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.98246385045329632</v>
+        <v>0.91950009895148976</v>
       </c>
     </row>
   </sheetData>
